--- a/Get_Directions/node/distance.xlsx
+++ b/Get_Directions/node/distance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\Desktop\20-2\AIM캡스톤디자인\깃허브\Get_Directions\node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69E2EB4E-9767-4920-88CC-AE25F6E0C4EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B372D386-47E8-4B30-8B2F-E35BCF39291F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1335" windowWidth="15120" windowHeight="12570" xr2:uid="{5C7526FB-258E-4E3B-8F30-6D733CD18BA2}"/>
+    <workbookView xWindow="-390" yWindow="1905" windowWidth="15120" windowHeight="12330" xr2:uid="{5C7526FB-258E-4E3B-8F30-6D733CD18BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>A</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>U</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>P</t>
@@ -216,6 +213,10 @@
   </si>
   <si>
     <t>distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,23 +581,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DB96BF-B310-4BAD-919B-38D82B655003}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -816,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="C21">
-        <v>0.16316608103401872</v>
+        <v>0.31884899999999999</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -827,18 +828,18 @@
         <v>18</v>
       </c>
       <c r="C22">
-        <v>0.17611896547504455</v>
+        <v>1.2294</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <v>1.2509000000000001</v>
+        <v>0.96260000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -846,21 +847,21 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C24">
-        <v>0.96260000000000001</v>
+        <v>0.78379999999999983</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25">
-        <v>0.78379999999999983</v>
+        <v>0.4373999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -871,227 +872,227 @@
         <v>21</v>
       </c>
       <c r="C26">
-        <v>0.4373999999999999</v>
+        <v>0.78379999999999983</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
       </c>
       <c r="C27">
-        <v>0.78379999999999983</v>
+        <v>0.27984790511990626</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C28">
-        <v>0.27984790511990626</v>
+        <v>0.59915348617862518</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
       <c r="C29">
-        <v>0.59915348617862518</v>
+        <v>0.46335192888343496</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>24</v>
       </c>
       <c r="C30">
-        <v>0.46335192888343496</v>
+        <v>0.72905420923275677</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>0.72905420923275677</v>
+        <v>0.47233053045510381</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>0.47233053045510381</v>
+        <v>0.96260000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>0.96260000000000001</v>
+        <v>0.91800000000000059</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
       </c>
       <c r="C34">
-        <v>0.91800000000000059</v>
+        <v>0.90910000549994496</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
         <v>27</v>
       </c>
       <c r="C35">
-        <v>0.90910000549994496</v>
+        <v>0.48842515291495775</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>28</v>
       </c>
       <c r="C36">
-        <v>0.48842515291495775</v>
+        <v>0.48507682896629906</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
         <v>29</v>
       </c>
       <c r="C37">
-        <v>0.48507682896629906</v>
+        <v>0.97677858801265749</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C38">
-        <v>0.97677858801265749</v>
+        <v>0.49476989601227744</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C39">
-        <v>0.49476989601227744</v>
+        <v>1.2049000165988881</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
       </c>
       <c r="C40">
-        <v>1.2049000165988881</v>
+        <v>0.43650001145475414</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41">
-        <v>0.43650001145475414</v>
+        <v>0.87900005119453772</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
         <v>32</v>
       </c>
       <c r="C42">
-        <v>0.87900005119453772</v>
+        <v>0.85299999999999976</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
       </c>
       <c r="C43">
-        <v>0.85299999999999976</v>
+        <v>0.52100008637235362</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C44">
-        <v>0.52100008637235362</v>
+        <v>0.8057000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
       <c r="C45">
-        <v>0.8057000000000003</v>
+        <v>1.2913089483156222</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C46">
-        <v>1.2913089483156222</v>
+        <v>0.59430000841325881</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1099,32 +1100,32 @@
         <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C47">
-        <v>0.59430000841325881</v>
+        <v>1.3422000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C48">
-        <v>1.3422000000000001</v>
+        <v>0.20886237095274046</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
         <v>38</v>
       </c>
       <c r="C49">
-        <v>0.20886237095274046</v>
+        <v>0.55989999999999984</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1135,128 +1136,128 @@
         <v>39</v>
       </c>
       <c r="C50">
-        <v>0.55989999999999984</v>
+        <v>0.3787107867489386</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
         <v>40</v>
       </c>
       <c r="C51">
-        <v>0.3787107867489386</v>
+        <v>0.55498054019938381</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B52" t="s">
         <v>41</v>
       </c>
       <c r="C52">
-        <v>0.55498054019938381</v>
+        <v>1.4919000000000002</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>1.4919000000000002</v>
+        <v>0.48924840316550855</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C54">
-        <v>0.48924840316550855</v>
+        <v>0.55389999999999961</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
         <v>43</v>
       </c>
       <c r="C55">
-        <v>0.55389999999999961</v>
+        <v>0.43988540553194078</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>0.43988540553194078</v>
+        <v>0.32740000000000014</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
         <v>44</v>
       </c>
-      <c r="B57" t="s">
-        <v>39</v>
-      </c>
       <c r="C57">
-        <v>0.32740000000000014</v>
+        <v>0.54859999999999953</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C58">
-        <v>0.54859999999999953</v>
+        <v>1.0725999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C59">
-        <v>1.0725999999999998</v>
+        <v>1.0670999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B60" t="s">
         <v>46</v>
       </c>
       <c r="C60">
-        <v>1.0670999999999999</v>
+        <v>0.24444786765279883</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
         <v>47</v>
       </c>
       <c r="C61">
-        <v>0.24444786765279883</v>
+        <v>0.23031604373121728</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1264,43 +1265,43 @@
         <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C62">
-        <v>0.23031604373121728</v>
+        <v>0.54259999999999986</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
         <v>48</v>
       </c>
-      <c r="B63" t="s">
-        <v>45</v>
-      </c>
       <c r="C63">
-        <v>0.54259999999999986</v>
+        <v>0.43250000000000011</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
       </c>
       <c r="C64">
-        <v>0.43250000000000011</v>
+        <v>0.41125458052160324</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B65" t="s">
         <v>50</v>
       </c>
       <c r="C65">
-        <v>0.41125458052160324</v>
+        <v>0.43416218167869014</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1311,7 +1312,7 @@
         <v>51</v>
       </c>
       <c r="C66">
-        <v>0.43416218167869014</v>
+        <v>0.32261348390915096</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,32 +1320,32 @@
         <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C67">
-        <v>0.32261348390915096</v>
+        <v>0.27035624646011036</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" t="s">
         <v>52</v>
       </c>
-      <c r="B68" t="s">
-        <v>49</v>
-      </c>
       <c r="C68">
-        <v>0.27035624646011036</v>
+        <v>0.23116859648317284</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
         <v>53</v>
       </c>
       <c r="C69">
-        <v>0.23116859648317284</v>
+        <v>0.3022190761682656</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1355,7 +1356,7 @@
         <v>54</v>
       </c>
       <c r="C70">
-        <v>0.3022190761682656</v>
+        <v>0.25936692156094227</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1366,7 +1367,7 @@
         <v>55</v>
       </c>
       <c r="C71">
-        <v>0.25936692156094227</v>
+        <v>0.28778467645098854</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1374,20 +1375,9 @@
         <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C72">
-        <v>0.28778467645098854</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B73" t="s">
-        <v>46</v>
-      </c>
-      <c r="C73">
         <v>0.41450019300357355</v>
       </c>
     </row>
